--- a/Project/Testing/Excel_File.xlsx
+++ b/Project/Testing/Excel_File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86FEC7B-0003-4551-AAE4-2BBA556BC7AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36140F69-F275-4CEF-846E-40DB4517328F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3600" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,11 +386,12 @@
   <dimension ref="B4:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/Project/Testing/Excel_File.xlsx
+++ b/Project/Testing/Excel_File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36140F69-F275-4CEF-846E-40DB4517328F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6618C72-2995-4F02-ABF6-2C7F61DB87C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3600" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="4635" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Dillon</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Int_test</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>dfe</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
   <dimension ref="B4:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +417,9 @@
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -422,7 +433,9 @@
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -437,6 +450,9 @@
       <c r="F6" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
@@ -447,6 +463,9 @@
       </c>
       <c r="F7" t="s">
         <v>5</v>
+      </c>
+      <c r="G7">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">

--- a/Project/Testing/Excel_File.xlsx
+++ b/Project/Testing/Excel_File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6618C72-2995-4F02-ABF6-2C7F61DB87C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BBBF0B-2BF8-4437-B645-230743E064EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4635" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="2910" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,49 +26,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Dillon</t>
   </si>
   <si>
-    <t>Britt</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>First_Name</t>
-  </si>
-  <si>
-    <t>Last_Name</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Int_test</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>dfe</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>test0</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>SALARY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +93,20 @@
       <color rgb="FF242729"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,10 +126,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -111,8 +138,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -392,92 +427,249 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B4:P12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="3">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
+      <c r="C9" s="3">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
